--- a/fifty_one/measurements/Updated_carapacssse_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_carapacssse_Filtered_Data_with_real_length.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c1</t>
+          <t>680e26b431403b86a91f065e</t>
         </is>
       </c>
       <c r="AF2" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c5</t>
+          <t>680e26b431403b86a91f0662</t>
         </is>
       </c>
       <c r="AF3" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c3</t>
+          <t>680e26b431403b86a91f0660</t>
         </is>
       </c>
       <c r="AF4" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1c7</t>
+          <t>680e26b431403b86a91f0664</t>
         </is>
       </c>
       <c r="AF5" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e3</t>
+          <t>680e26b531403b86a91f0980</t>
         </is>
       </c>
       <c r="AF6" t="n">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e5</t>
+          <t>680e26b531403b86a91f0982</t>
         </is>
       </c>
       <c r="AF7" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4e7</t>
+          <t>680e26b531403b86a91f0984</t>
         </is>
       </c>
       <c r="AF8" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf663</t>
+          <t>680e26b531403b86a91f0b00</t>
         </is>
       </c>
       <c r="AF9" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf661</t>
+          <t>680e26b531403b86a91f0afe</t>
         </is>
       </c>
       <c r="AF10" t="n">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38c</t>
+          <t>680e26b531403b86a91f0829</t>
         </is>
       </c>
       <c r="AF11" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38a</t>
+          <t>680e26b531403b86a91f0827</t>
         </is>
       </c>
       <c r="AF12" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38c</t>
+          <t>680e26b531403b86a91f0829</t>
         </is>
       </c>
       <c r="AF13" t="n">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf38e</t>
+          <t>680e26b531403b86a91f082b</t>
         </is>
       </c>
       <c r="AF14" t="n">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2aa</t>
+          <t>680e26b431403b86a91f0747</t>
         </is>
       </c>
       <c r="AF15" t="n">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2a8</t>
+          <t>680e26b431403b86a91f0745</t>
         </is>
       </c>
       <c r="AF16" t="n">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf547</t>
+          <t>680e26b531403b86a91f09e4</t>
         </is>
       </c>
       <c r="AF17" t="n">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf549</t>
+          <t>680e26b531403b86a91f09e6</t>
         </is>
       </c>
       <c r="AF18" t="n">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf247</t>
+          <t>680e26b431403b86a91f06e4</t>
         </is>
       </c>
       <c r="AF19" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf245</t>
+          <t>680e26b431403b86a91f06e2</t>
         </is>
       </c>
       <c r="AF20" t="n">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf24b</t>
+          <t>680e26b431403b86a91f06e8</t>
         </is>
       </c>
       <c r="AF21" t="n">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17d</t>
+          <t>680e26b431403b86a91f061a</t>
         </is>
       </c>
       <c r="AF22" t="n">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17f</t>
+          <t>680e26b431403b86a91f061c</t>
         </is>
       </c>
       <c r="AF23" t="n">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf17b</t>
+          <t>680e26b431403b86a91f0618</t>
         </is>
       </c>
       <c r="AF24" t="n">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3bb</t>
+          <t>680e26b531403b86a91f0858</t>
         </is>
       </c>
       <c r="AF25" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3b7</t>
+          <t>680e26b531403b86a91f0854</t>
         </is>
       </c>
       <c r="AF26" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3b9</t>
+          <t>680e26b531403b86a91f0856</t>
         </is>
       </c>
       <c r="AF27" t="n">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf351</t>
+          <t>680e26b431403b86a91f07ee</t>
         </is>
       </c>
       <c r="AF35" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf357</t>
+          <t>680e26b431403b86a91f07f4</t>
         </is>
       </c>
       <c r="AF36" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf355</t>
+          <t>680e26b431403b86a91f07f2</t>
         </is>
       </c>
       <c r="AF37" t="n">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf34d</t>
+          <t>680e26b431403b86a91f07ea</t>
         </is>
       </c>
       <c r="AF38" t="n">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf34f</t>
+          <t>680e26b431403b86a91f07ec</t>
         </is>
       </c>
       <c r="AF39" t="n">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf409</t>
+          <t>680e26b531403b86a91f08a6</t>
         </is>
       </c>
       <c r="AF40" t="n">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf40b</t>
+          <t>680e26b531403b86a91f08a8</t>
         </is>
       </c>
       <c r="AF41" t="n">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf415</t>
+          <t>680e26b531403b86a91f08b2</t>
         </is>
       </c>
       <c r="AF42" t="n">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf40d</t>
+          <t>680e26b531403b86a91f08aa</t>
         </is>
       </c>
       <c r="AF43" t="n">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf201</t>
+          <t>680e26b431403b86a91f069e</t>
         </is>
       </c>
       <c r="AF44" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf203</t>
+          <t>680e26b431403b86a91f06a0</t>
         </is>
       </c>
       <c r="AF45" t="n">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf203</t>
+          <t>680e26b431403b86a91f06a0</t>
         </is>
       </c>
       <c r="AF46" t="n">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3de</t>
+          <t>680e26b531403b86a91f087b</t>
         </is>
       </c>
       <c r="AF47" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3da</t>
+          <t>680e26b531403b86a91f0877</t>
         </is>
       </c>
       <c r="AF48" t="n">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3d8</t>
+          <t>680e26b531403b86a91f0875</t>
         </is>
       </c>
       <c r="AF49" t="n">
@@ -9239,7 +9239,7 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf3d6</t>
+          <t>680e26b531403b86a91f0873</t>
         </is>
       </c>
       <c r="AF50" t="n">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf50c</t>
+          <t>680e26b531403b86a91f09a9</t>
         </is>
       </c>
       <c r="AF51" t="n">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf508</t>
+          <t>680e26b531403b86a91f09a5</t>
         </is>
       </c>
       <c r="AF52" t="n">
@@ -9800,7 +9800,7 @@
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf512</t>
+          <t>680e26b531403b86a91f09af</t>
         </is>
       </c>
       <c r="AF53" t="n">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf50a</t>
+          <t>680e26b531403b86a91f09a7</t>
         </is>
       </c>
       <c r="AF54" t="n">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf506</t>
+          <t>680e26b531403b86a91f09a3</t>
         </is>
       </c>
       <c r="AF55" t="n">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf461</t>
+          <t>680e26b531403b86a91f08fe</t>
         </is>
       </c>
       <c r="AF56" t="n">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45d</t>
+          <t>680e26b531403b86a91f08fa</t>
         </is>
       </c>
       <c r="AF57" t="n">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45b</t>
+          <t>680e26b531403b86a91f08f8</t>
         </is>
       </c>
       <c r="AF58" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="AE59" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf45f</t>
+          <t>680e26b531403b86a91f08fc</t>
         </is>
       </c>
       <c r="AF59" t="n">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf461</t>
+          <t>680e26b531403b86a91f08fe</t>
         </is>
       </c>
       <c r="AF60" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf467</t>
+          <t>680e26b531403b86a91f0904</t>
         </is>
       </c>
       <c r="AF61" t="n">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1ec</t>
+          <t>680e26b431403b86a91f0689</t>
         </is>
       </c>
       <c r="AF62" t="n">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1ea</t>
+          <t>680e26b431403b86a91f0687</t>
         </is>
       </c>
       <c r="AF63" t="n">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf676</t>
+          <t>680e26b531403b86a91f0b13</t>
         </is>
       </c>
       <c r="AF64" t="n">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf678</t>
+          <t>680e26b531403b86a91f0b15</t>
         </is>
       </c>
       <c r="AF65" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf67a</t>
+          <t>680e26b531403b86a91f0b17</t>
         </is>
       </c>
       <c r="AF66" t="n">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4b1</t>
+          <t>680e26b531403b86a91f094e</t>
         </is>
       </c>
       <c r="AF67" t="n">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4af</t>
+          <t>680e26b531403b86a91f094c</t>
         </is>
       </c>
       <c r="AF68" t="n">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4ad</t>
+          <t>680e26b531403b86a91f094a</t>
         </is>
       </c>
       <c r="AF69" t="n">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf4b7</t>
+          <t>680e26b531403b86a91f0954</t>
         </is>
       </c>
       <c r="AF70" t="n">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5af</t>
+          <t>680e26b531403b86a91f0a4c</t>
         </is>
       </c>
       <c r="AF71" t="n">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5b3</t>
+          <t>680e26b531403b86a91f0a50</t>
         </is>
       </c>
       <c r="AF72" t="n">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5ab</t>
+          <t>680e26b531403b86a91f0a48</t>
         </is>
       </c>
       <c r="AF73" t="n">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5a9</t>
+          <t>680e26b531403b86a91f0a46</t>
         </is>
       </c>
       <c r="AF74" t="n">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5ad</t>
+          <t>680e26b531403b86a91f0a4a</t>
         </is>
       </c>
       <c r="AF75" t="n">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2bd</t>
+          <t>680e26b431403b86a91f075a</t>
         </is>
       </c>
       <c r="AF76" t="n">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="AE77" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2c3</t>
+          <t>680e26b431403b86a91f0760</t>
         </is>
       </c>
       <c r="AF77" t="n">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2c1</t>
+          <t>680e26b431403b86a91f075e</t>
         </is>
       </c>
       <c r="AF78" t="n">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2bf</t>
+          <t>680e26b431403b86a91f075c</t>
         </is>
       </c>
       <c r="AF79" t="n">
@@ -14849,7 +14849,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf444</t>
+          <t>680e26b531403b86a91f08e1</t>
         </is>
       </c>
       <c r="AF80" t="n">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf444</t>
+          <t>680e26b531403b86a91f08e1</t>
         </is>
       </c>
       <c r="AF81" t="n">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2fd</t>
+          <t>680e26b431403b86a91f079a</t>
         </is>
       </c>
       <c r="AF82" t="n">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="AE83" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2fd</t>
+          <t>680e26b431403b86a91f079a</t>
         </is>
       </c>
       <c r="AF83" t="n">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="AE84" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2ff</t>
+          <t>680e26b431403b86a91f079c</t>
         </is>
       </c>
       <c r="AF84" t="n">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf268</t>
+          <t>680e26b431403b86a91f0705</t>
         </is>
       </c>
       <c r="AF85" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf26c</t>
+          <t>680e26b431403b86a91f0709</t>
         </is>
       </c>
       <c r="AF86" t="n">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf26e</t>
+          <t>680e26b431403b86a91f070b</t>
         </is>
       </c>
       <c r="AF87" t="n">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2ea</t>
+          <t>680e26b431403b86a91f0787</t>
         </is>
       </c>
       <c r="AF88" t="n">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="AE89" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf2e8</t>
+          <t>680e26b431403b86a91f0785</t>
         </is>
       </c>
       <c r="AF89" t="n">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="AE90" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e4</t>
+          <t>680e26b531403b86a91f0a81</t>
         </is>
       </c>
       <c r="AF90" t="n">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e6</t>
+          <t>680e26b531403b86a91f0a83</t>
         </is>
       </c>
       <c r="AF91" t="n">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="AE92" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e8</t>
+          <t>680e26b531403b86a91f0a85</t>
         </is>
       </c>
       <c r="AF92" t="n">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="AE93" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e8</t>
+          <t>680e26b531403b86a91f0a85</t>
         </is>
       </c>
       <c r="AF93" t="n">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="AE94" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e2</t>
+          <t>680e26b531403b86a91f0a7f</t>
         </is>
       </c>
       <c r="AF94" t="n">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="AE95" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf5e2</t>
+          <t>680e26b531403b86a91f0a7f</t>
         </is>
       </c>
       <c r="AF95" t="n">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="AE96" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf326</t>
+          <t>680e26b431403b86a91f07c3</t>
         </is>
       </c>
       <c r="AF96" t="n">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="AE97" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf320</t>
+          <t>680e26b431403b86a91f07bd</t>
         </is>
       </c>
       <c r="AF97" t="n">
@@ -18215,7 +18215,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf322</t>
+          <t>680e26b431403b86a91f07bf</t>
         </is>
       </c>
       <c r="AF98" t="n">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="AE99" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf324</t>
+          <t>680e26b431403b86a91f07c1</t>
         </is>
       </c>
       <c r="AF99" t="n">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="AE100" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6e6</t>
+          <t>680e26b631403b86a91f0b83</t>
         </is>
       </c>
       <c r="AF100" t="n">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6ea</t>
+          <t>680e26b631403b86a91f0b87</t>
         </is>
       </c>
       <c r="AF101" t="n">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="AE102" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6e8</t>
+          <t>680e26b631403b86a91f0b85</t>
         </is>
       </c>
       <c r="AF102" t="n">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6ec</t>
+          <t>680e26b631403b86a91f0b89</t>
         </is>
       </c>
       <c r="AF103" t="n">
@@ -19337,7 +19337,7 @@
       </c>
       <c r="AE104" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf28f</t>
+          <t>680e26b431403b86a91f072c</t>
         </is>
       </c>
       <c r="AF104" t="n">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="AE105" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf291</t>
+          <t>680e26b431403b86a91f072e</t>
         </is>
       </c>
       <c r="AF105" t="n">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="AE106" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf713</t>
+          <t>680e26b631403b86a91f0bb0</t>
         </is>
       </c>
       <c r="AF106" t="n">
@@ -19898,7 +19898,7 @@
       </c>
       <c r="AE107" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf711</t>
+          <t>680e26b631403b86a91f0bae</t>
         </is>
       </c>
       <c r="AF107" t="n">
@@ -20085,7 +20085,7 @@
       </c>
       <c r="AE108" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf715</t>
+          <t>680e26b631403b86a91f0bb2</t>
         </is>
       </c>
       <c r="AF108" t="n">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="AE109" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf71b</t>
+          <t>680e26b631403b86a91f0bb8</t>
         </is>
       </c>
       <c r="AF109" t="n">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="AE110" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf55e</t>
+          <t>680e26b531403b86a91f09fb</t>
         </is>
       </c>
       <c r="AF110" t="n">
@@ -20646,7 +20646,7 @@
       </c>
       <c r="AE111" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf560</t>
+          <t>680e26b531403b86a91f09fd</t>
         </is>
       </c>
       <c r="AF111" t="n">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="AE112" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf581</t>
+          <t>680e26b531403b86a91f0a1e</t>
         </is>
       </c>
       <c r="AF112" t="n">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="AE113" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf57b</t>
+          <t>680e26b531403b86a91f0a18</t>
         </is>
       </c>
       <c r="AF113" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="AE114" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf579</t>
+          <t>680e26b531403b86a91f0a16</t>
         </is>
       </c>
       <c r="AF114" t="n">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="AE115" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf695</t>
+          <t>680e26b531403b86a91f0b32</t>
         </is>
       </c>
       <c r="AF115" t="n">
@@ -21581,7 +21581,7 @@
       </c>
       <c r="AE116" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf695</t>
+          <t>680e26b531403b86a91f0b32</t>
         </is>
       </c>
       <c r="AF116" t="n">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="AE117" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf59e</t>
+          <t>680e26b531403b86a91f0a3b</t>
         </is>
       </c>
       <c r="AF117" t="n">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>67ee47039c4350e819bdf49c</t>
+          <t>680e26b531403b86a91f0939</t>
         </is>
       </c>
       <c r="AF118" t="n">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf224</t>
+          <t>680e26b431403b86a91f06c1</t>
         </is>
       </c>
       <c r="AF119" t="n">
@@ -22329,7 +22329,7 @@
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf226</t>
+          <t>680e26b431403b86a91f06c3</t>
         </is>
       </c>
       <c r="AF120" t="n">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t>67ee47029c4350e819bdf228</t>
+          <t>680e26b431403b86a91f06c5</t>
         </is>
       </c>
       <c r="AF121" t="n">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1a4</t>
+          <t>680e26b431403b86a91f0641</t>
         </is>
       </c>
       <c r="AF122" t="n">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="AE123" t="inlineStr">
         <is>
-          <t>67ee47019c4350e819bdf1a2</t>
+          <t>680e26b431403b86a91f063f</t>
         </is>
       </c>
       <c r="AF123" t="n">
@@ -23077,7 +23077,7 @@
       </c>
       <c r="AE124" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf634</t>
+          <t>680e26b531403b86a91f0ad1</t>
         </is>
       </c>
       <c r="AF124" t="n">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="AE125" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf632</t>
+          <t>680e26b531403b86a91f0acf</t>
         </is>
       </c>
       <c r="AF125" t="n">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="AE126" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf636</t>
+          <t>680e26b531403b86a91f0ad3</t>
         </is>
       </c>
       <c r="AF126" t="n">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf638</t>
+          <t>680e26b531403b86a91f0ad5</t>
         </is>
       </c>
       <c r="AF127" t="n">
@@ -23825,7 +23825,7 @@
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf61f</t>
+          <t>680e26b531403b86a91f0abc</t>
         </is>
       </c>
       <c r="AF128" t="n">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf61d</t>
+          <t>680e26b531403b86a91f0aba</t>
         </is>
       </c>
       <c r="AF129" t="n">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="AE130" t="inlineStr">
         <is>
-          <t>67ee47049c4350e819bdf4d8</t>
+          <t>680e26b531403b86a91f0975</t>
         </is>
       </c>
       <c r="AF130" t="n">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bb</t>
+          <t>680e26b631403b86a91f0b58</t>
         </is>
       </c>
       <c r="AF131" t="n">
@@ -24573,7 +24573,7 @@
       </c>
       <c r="AE132" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bb</t>
+          <t>680e26b631403b86a91f0b58</t>
         </is>
       </c>
       <c r="AF132" t="n">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="AE133" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6bd</t>
+          <t>680e26b631403b86a91f0b5a</t>
         </is>
       </c>
       <c r="AF133" t="n">
@@ -24947,7 +24947,7 @@
       </c>
       <c r="AE134" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6b9</t>
+          <t>680e26b631403b86a91f0b56</t>
         </is>
       </c>
       <c r="AF134" t="n">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="AE135" t="inlineStr">
         <is>
-          <t>67ee47059c4350e819bdf6aa</t>
+          <t>680e26b631403b86a91f0b47</t>
         </is>
       </c>
       <c r="AF135" t="n">
@@ -25321,7 +25321,7 @@
       </c>
       <c r="AE136" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf744</t>
+          <t>680e26b631403b86a91f0be1</t>
         </is>
       </c>
       <c r="AF136" t="n">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf742</t>
+          <t>680e26b631403b86a91f0bdf</t>
         </is>
       </c>
       <c r="AF137" t="n">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="AE138" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7b3</t>
+          <t>680e26b631403b86a91f0c50</t>
         </is>
       </c>
       <c r="AF138" t="n">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="AE139" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7af</t>
+          <t>680e26b631403b86a91f0c4c</t>
         </is>
       </c>
       <c r="AF139" t="n">
@@ -26176,7 +26176,7 @@
       </c>
       <c r="AE141" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf82a</t>
+          <t>680e26b631403b86a91f0cc7</t>
         </is>
       </c>
       <c r="AF141" t="n">
@@ -26328,44 +26328,124 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
-      <c r="AK142" t="inlineStr"/>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
-      <c r="AN142" t="inlineStr"/>
-      <c r="AO142" t="inlineStr"/>
-      <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
-      <c r="AU142" t="inlineStr"/>
-      <c r="AV142" t="inlineStr"/>
-      <c r="AW142" t="inlineStr"/>
-      <c r="AX142" t="inlineStr"/>
-      <c r="AY142" t="inlineStr"/>
-      <c r="AZ142" t="inlineStr"/>
-      <c r="BA142" t="inlineStr"/>
-      <c r="BB142" t="inlineStr"/>
-      <c r="BC142" t="inlineStr"/>
-      <c r="BD142" t="inlineStr"/>
-      <c r="BE142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>0.1210900932699188</v>
+      </c>
+      <c r="U142" t="n">
+        <v>246.5310831435915</v>
+      </c>
+      <c r="V142" t="n">
+        <v>246.5310831435915</v>
+      </c>
+      <c r="W142" t="n">
+        <v>307.5063787751204</v>
+      </c>
+      <c r="X142" t="n">
+        <v>307.5063787751204</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>289.4998068301628</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>289.4998068301628</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>18.13165765123243</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>149.9999999999999</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>94.15468970431543</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0.120877717674883</v>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>680e26b631403b86a91f0da7</t>
+        </is>
+      </c>
+      <c r="AF142" t="n">
+        <v>11.40120015809582</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>415</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>11.33094786422173</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>245.1782208</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>306.1519483999999</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>288.128673</v>
+      </c>
+      <c r="AL142" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="AM142" t="n">
+        <v>94.15468970431543</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>62.9734990968569</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>72.02022146339495</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>69.09992639484015</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>19.39079984190418</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>29.34679984190417</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>25.49579984190416</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>19.46105213577827</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>29.41705213577826</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>25.56605213577825</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>63.20165022011648</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>72.19262819225058</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>69.29032749485937</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>12.66034234876757</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>22.61634234876757</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>18.76534234876755</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>41.11568702509603</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>55.5029506939422</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>50.85872116640259</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -26577,7 +26657,7 @@
       </c>
       <c r="AE144" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8de</t>
+          <t>680e26b631403b86a91f0d7b</t>
         </is>
       </c>
       <c r="AF144" t="n">
@@ -26978,7 +27058,7 @@
       </c>
       <c r="AE147" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf904</t>
+          <t>680e26b631403b86a91f0db2</t>
         </is>
       </c>
       <c r="AF147" t="n">
@@ -27165,7 +27245,7 @@
       </c>
       <c r="AE148" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf904</t>
+          <t>680e26b631403b86a91f0db2</t>
         </is>
       </c>
       <c r="AF148" t="n">
@@ -27459,7 +27539,7 @@
       </c>
       <c r="AE150" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7c8</t>
+          <t>680e26b631403b86a91f0c65</t>
         </is>
       </c>
       <c r="AF150" t="n">
@@ -27646,7 +27726,7 @@
       </c>
       <c r="AE151" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf861</t>
+          <t>680e26b631403b86a91f0cfe</t>
         </is>
       </c>
       <c r="AF151" t="n">
@@ -28261,7 +28341,7 @@
       </c>
       <c r="AE156" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf892</t>
+          <t>680e26b631403b86a91f0d2f</t>
         </is>
       </c>
       <c r="AF156" t="n">
@@ -28448,7 +28528,7 @@
       </c>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7ea</t>
+          <t>680e26b631403b86a91f0c87</t>
         </is>
       </c>
       <c r="AF157" t="n">
@@ -28635,7 +28715,7 @@
       </c>
       <c r="AE158" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf876</t>
+          <t>680e26b631403b86a91f0d13</t>
         </is>
       </c>
       <c r="AF158" t="n">
@@ -29464,7 +29544,7 @@
       </c>
       <c r="AE165" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7f5</t>
+          <t>680e26b631403b86a91f0c92</t>
         </is>
       </c>
       <c r="AF165" t="n">
@@ -29758,7 +29838,7 @@
       </c>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf80d</t>
+          <t>680e26b631403b86a91f0caa</t>
         </is>
       </c>
       <c r="AF167" t="n">
@@ -29945,7 +30025,7 @@
       </c>
       <c r="AE168" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8aa</t>
+          <t>680e26b631403b86a91f0d47</t>
         </is>
       </c>
       <c r="AF168" t="n">
@@ -30132,7 +30212,7 @@
       </c>
       <c r="AE169" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf783</t>
+          <t>680e26b631403b86a91f0c20</t>
         </is>
       </c>
       <c r="AF169" t="n">
@@ -30640,7 +30720,7 @@
       </c>
       <c r="AE173" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf89f</t>
+          <t>680e26b631403b86a91f0d3c</t>
         </is>
       </c>
       <c r="AF173" t="n">
@@ -30827,7 +30907,7 @@
       </c>
       <c r="AE174" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf802</t>
+          <t>680e26b631403b86a91f0c9f</t>
         </is>
       </c>
       <c r="AF174" t="n">
@@ -31014,7 +31094,7 @@
       </c>
       <c r="AE175" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8c6</t>
+          <t>680e26b631403b86a91f0d63</t>
         </is>
       </c>
       <c r="AF175" t="n">
@@ -31201,7 +31281,7 @@
       </c>
       <c r="AE176" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7d5</t>
+          <t>680e26b631403b86a91f0c72</t>
         </is>
       </c>
       <c r="AF176" t="n">
@@ -31388,7 +31468,7 @@
       </c>
       <c r="AE177" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf7d7</t>
+          <t>680e26b631403b86a91f0c74</t>
         </is>
       </c>
       <c r="AF177" t="n">
@@ -31575,7 +31655,7 @@
       </c>
       <c r="AE178" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf759</t>
+          <t>680e26b631403b86a91f0bf6</t>
         </is>
       </c>
       <c r="AF178" t="n">
@@ -31762,7 +31842,7 @@
       </c>
       <c r="AE179" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8d3</t>
+          <t>680e26b631403b86a91f0d70</t>
         </is>
       </c>
       <c r="AF179" t="n">
@@ -31949,7 +32029,7 @@
       </c>
       <c r="AE180" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf91d</t>
+          <t>680e26b631403b86a91f0dcb</t>
         </is>
       </c>
       <c r="AF180" t="n">
@@ -32136,7 +32216,7 @@
       </c>
       <c r="AE181" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf921</t>
+          <t>680e26b631403b86a91f0dcf</t>
         </is>
       </c>
       <c r="AF181" t="n">
@@ -32323,7 +32403,7 @@
       </c>
       <c r="AE182" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf881</t>
+          <t>680e26b631403b86a91f0d1e</t>
         </is>
       </c>
       <c r="AF182" t="n">
@@ -32510,7 +32590,7 @@
       </c>
       <c r="AE183" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf93e</t>
+          <t>680e26b631403b86a91f0dec</t>
         </is>
       </c>
       <c r="AF183" t="n">
@@ -32697,7 +32777,7 @@
       </c>
       <c r="AE184" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8b5</t>
+          <t>680e26b631403b86a91f0d52</t>
         </is>
       </c>
       <c r="AF184" t="n">
@@ -32884,7 +32964,7 @@
       </c>
       <c r="AE185" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf768</t>
+          <t>680e26b631403b86a91f0c05</t>
         </is>
       </c>
       <c r="AF185" t="n">
@@ -33071,7 +33151,7 @@
       </c>
       <c r="AE186" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf852</t>
+          <t>680e26b631403b86a91f0cef</t>
         </is>
       </c>
       <c r="AF186" t="n">
@@ -33258,7 +33338,7 @@
       </c>
       <c r="AE187" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf790</t>
+          <t>680e26b631403b86a91f0c2d</t>
         </is>
       </c>
       <c r="AF187" t="n">
@@ -33445,7 +33525,7 @@
       </c>
       <c r="AE188" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf790</t>
+          <t>680e26b631403b86a91f0c2d</t>
         </is>
       </c>
       <c r="AF188" t="n">
@@ -33632,7 +33712,7 @@
       </c>
       <c r="AE189" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf78e</t>
+          <t>680e26b631403b86a91f0c2b</t>
         </is>
       </c>
       <c r="AF189" t="n">
@@ -33819,7 +33899,7 @@
       </c>
       <c r="AE190" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8ef</t>
+          <t>680e26b631403b86a91f0d8c</t>
         </is>
       </c>
       <c r="AF190" t="n">
@@ -34006,7 +34086,7 @@
       </c>
       <c r="AE191" t="inlineStr">
         <is>
-          <t>67ee47079c4350e819bdf8ef</t>
+          <t>680e26b631403b86a91f0d8c</t>
         </is>
       </c>
       <c r="AF191" t="n">
@@ -34193,7 +34273,7 @@
       </c>
       <c r="AE192" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf83b</t>
+          <t>680e26b631403b86a91f0cd8</t>
         </is>
       </c>
       <c r="AF192" t="n">
@@ -34380,7 +34460,7 @@
       </c>
       <c r="AE193" t="inlineStr">
         <is>
-          <t>67ee47069c4350e819bdf83d</t>
+          <t>680e26b631403b86a91f0cda</t>
         </is>
       </c>
       <c r="AF193" t="n">
